--- a/manga_scripts/manga_list.xlsx
+++ b/manga_scripts/manga_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Art-1405260002\d\assets\scripts\manga_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="774">
   <si>
     <t>to_love_ru</t>
   </si>
@@ -1317,13 +1317,1500 @@
   <si>
     <t>櫻坂洋</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古味直志</t>
+  </si>
+  <si>
+    <t>偽戀</t>
+  </si>
+  <si>
+    <t>nisekoi</t>
+  </si>
+  <si>
+    <t>車田正美</t>
+  </si>
+  <si>
+    <t>鋼鐵神兵</t>
+  </si>
+  <si>
+    <t>btx</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>岡本倫</t>
+  </si>
+  <si>
+    <t>變異體少女</t>
+  </si>
+  <si>
+    <t>elfen_lied</t>
+  </si>
+  <si>
+    <t>宇仁田由美</t>
+  </si>
+  <si>
+    <t>白兔玩偶</t>
+  </si>
+  <si>
+    <t>bunny_drop</t>
+  </si>
+  <si>
+    <t>麻宮騎亞</t>
+  </si>
+  <si>
+    <t>JUNK</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>安彥良和</t>
+  </si>
+  <si>
+    <t>機動戰士</t>
+  </si>
+  <si>
+    <t>gundam_the_origin</t>
+  </si>
+  <si>
+    <t>金成陽三郎 金成陽三郎 佐藤文也</t>
+  </si>
+  <si>
+    <t>金田一少年之事件簿</t>
+  </si>
+  <si>
+    <t>kinaidchi_case_files</t>
+  </si>
+  <si>
+    <t>遠藤浩輝</t>
+  </si>
+  <si>
+    <t>EDEN</t>
+  </si>
+  <si>
+    <t>eden</t>
+  </si>
+  <si>
+    <t>岩代俊明</t>
+  </si>
+  <si>
+    <t>PSYREN－決戰遊戲－</t>
+  </si>
+  <si>
+    <t>psyren</t>
+  </si>
+  <si>
+    <t>別天荒人</t>
+  </si>
+  <si>
+    <t>王子大冒險</t>
+  </si>
+  <si>
+    <t>prince_standard</t>
+  </si>
+  <si>
+    <t>光永康則</t>
+  </si>
+  <si>
+    <t>怪物王女</t>
+  </si>
+  <si>
+    <t>princess_resurrection</t>
+  </si>
+  <si>
+    <t>永井豪/夏元雅人</t>
+  </si>
+  <si>
+    <t>降魔傳 手天童子</t>
+  </si>
+  <si>
+    <t>gomaden_shutendoji</t>
+  </si>
+  <si>
+    <t>原哲夫 隆慶一郎</t>
+  </si>
+  <si>
+    <t>破軍星 Sakon</t>
+  </si>
+  <si>
+    <t>sakon_sengoku_fuuunroku</t>
+  </si>
+  <si>
+    <t>高木一馬</t>
+  </si>
+  <si>
+    <t>馬拉松硬漢</t>
+  </si>
+  <si>
+    <t>marathon_man</t>
+  </si>
+  <si>
+    <t>聖鬪士星矢</t>
+  </si>
+  <si>
+    <t>saint_seiya</t>
+  </si>
+  <si>
+    <t>竿尾悟</t>
+  </si>
+  <si>
+    <t>超商無戰事</t>
+  </si>
+  <si>
+    <t>convenience_store_dmz</t>
+  </si>
+  <si>
+    <t>宇宙也入樽</t>
+  </si>
+  <si>
+    <t>buzzer_beater</t>
+  </si>
+  <si>
+    <t>ufotable</t>
+  </si>
+  <si>
+    <t>星際海盜</t>
+  </si>
+  <si>
+    <t>coyote_ragtime_show</t>
+  </si>
+  <si>
+    <t>xxxHOLic</t>
+  </si>
+  <si>
+    <t>xxxholic</t>
+  </si>
+  <si>
+    <t>左菱虛 矢立肇 富野由悠季</t>
+  </si>
+  <si>
+    <t>鋼彈宅女</t>
+  </si>
+  <si>
+    <t>gundam_ace</t>
+  </si>
+  <si>
+    <t>安童夕馬 朝基勝士</t>
+  </si>
+  <si>
+    <t>王牌至尊</t>
+  </si>
+  <si>
+    <t>kunimitsu_no_masturi</t>
+  </si>
+  <si>
+    <t>中野獨人 道家大輔</t>
+  </si>
+  <si>
+    <t>電車男</t>
+  </si>
+  <si>
+    <t>densha_otoko</t>
+  </si>
+  <si>
+    <t>有川浩 弓黃色</t>
+  </si>
+  <si>
+    <t>圖書館戰爭</t>
+  </si>
+  <si>
+    <t>library_war</t>
+  </si>
+  <si>
+    <t>貞本義行</t>
+  </si>
+  <si>
+    <t>新世紀EVANGELION福音戰士</t>
+  </si>
+  <si>
+    <t>neon_genesis_evangelion</t>
+  </si>
+  <si>
+    <t>片倉・狼組・政憲</t>
+  </si>
+  <si>
+    <t>魔炮使黑姬</t>
+  </si>
+  <si>
+    <t>kurohime</t>
+  </si>
+  <si>
+    <t>河島正</t>
+  </si>
+  <si>
+    <t>ALIVE最終進化的少年</t>
+  </si>
+  <si>
+    <t>alive_the_final_evolution</t>
+  </si>
+  <si>
+    <t>大橋隼人</t>
+  </si>
+  <si>
+    <t>R-15</t>
+  </si>
+  <si>
+    <t>r_15</t>
+  </si>
+  <si>
+    <t>渡瀨悠宇</t>
+  </si>
+  <si>
+    <t>不思議遊戲</t>
+  </si>
+  <si>
+    <t>fushigi_yugi</t>
+  </si>
+  <si>
+    <t>本名和幸</t>
+  </si>
+  <si>
+    <t>偷窺孔</t>
+  </si>
+  <si>
+    <t>nozoki_ana</t>
+  </si>
+  <si>
+    <t>矢吹健太朗</t>
+  </si>
+  <si>
+    <t>BLACK CAT 黑貓</t>
+  </si>
+  <si>
+    <t>black_cat</t>
+  </si>
+  <si>
+    <t>熱情</t>
+  </si>
+  <si>
+    <t>馮展鵬</t>
+  </si>
+  <si>
+    <t>密殺戰群</t>
+  </si>
+  <si>
+    <t>confidential_assassination_troop</t>
+  </si>
+  <si>
+    <t>富沢順</t>
+  </si>
+  <si>
+    <t>燒肉第一家</t>
+  </si>
+  <si>
+    <t>the_yakiniku_people_bulgogi</t>
+  </si>
+  <si>
+    <t>BATMAN-CHILD.OF.DREAMS</t>
+  </si>
+  <si>
+    <t>batman_child_of_dreams</t>
+  </si>
+  <si>
+    <t>記伊孝</t>
+  </si>
+  <si>
+    <t>犯罪交涉人 峰岸英太郎</t>
+  </si>
+  <si>
+    <t>the_negotiation_limerick_file</t>
+  </si>
+  <si>
+    <t>原つもい</t>
+  </si>
+  <si>
+    <t>生存在這座島上的邪惡之物</t>
+  </si>
+  <si>
+    <t>indecent_evil_things_living_on_this_island</t>
+  </si>
+  <si>
+    <t>手塚治虫</t>
+  </si>
+  <si>
+    <t>怪醫黑傑克</t>
+  </si>
+  <si>
+    <t>black_jack</t>
+  </si>
+  <si>
+    <t>山森三香</t>
+  </si>
+  <si>
+    <t>晝行閃耀的流星</t>
+  </si>
+  <si>
+    <t>daytime_shooting_star</t>
+  </si>
+  <si>
+    <t>西森博之</t>
+  </si>
+  <si>
+    <t>魯莽天使</t>
+  </si>
+  <si>
+    <t>cheeky_angel</t>
+  </si>
+  <si>
+    <t>山本康人</t>
+  </si>
+  <si>
+    <t>忍者老爸</t>
+  </si>
+  <si>
+    <t>ninja_dad</t>
+  </si>
+  <si>
+    <t>魚戶修-</t>
+  </si>
+  <si>
+    <t>亞特蘭提斯之謎</t>
+  </si>
+  <si>
+    <t>atlantis</t>
+  </si>
+  <si>
+    <t>Q＆A</t>
+  </si>
+  <si>
+    <t>qanda</t>
+  </si>
+  <si>
+    <t>新川直司</t>
+  </si>
+  <si>
+    <t>四月是你的謊言</t>
+  </si>
+  <si>
+    <t>your_lie_in_april</t>
+  </si>
+  <si>
+    <t>きたがわ翔</t>
+  </si>
+  <si>
+    <t>死亡清掃人</t>
+  </si>
+  <si>
+    <t>death_sweeper</t>
+  </si>
+  <si>
+    <t>幸村誠</t>
+  </si>
+  <si>
+    <t>星空之旅</t>
+  </si>
+  <si>
+    <t>planetes</t>
+  </si>
+  <si>
+    <t>虹色辣椒</t>
+  </si>
+  <si>
+    <t>niji_iro_togarashi</t>
+  </si>
+  <si>
+    <t>山村哉</t>
+  </si>
+  <si>
+    <t>神樣DOLLS</t>
+  </si>
+  <si>
+    <t>kamisama_dolls</t>
+  </si>
+  <si>
+    <t>清水玲子</t>
+  </si>
+  <si>
+    <t>最高機密</t>
+  </si>
+  <si>
+    <t>himitsu_top_secret</t>
+  </si>
+  <si>
+    <t>田中保左奈</t>
+  </si>
+  <si>
+    <t>亂飛亂外</t>
+  </si>
+  <si>
+    <t>ninja_girls</t>
+  </si>
+  <si>
+    <t>sora inoue</t>
+  </si>
+  <si>
+    <t>零式戰鬥</t>
+  </si>
+  <si>
+    <t>zeroin</t>
+  </si>
+  <si>
+    <t>東條仁</t>
+  </si>
+  <si>
+    <t>轉世鐵漢</t>
+  </si>
+  <si>
+    <t>cuffs</t>
+  </si>
+  <si>
+    <t>大和田秀樹</t>
+  </si>
+  <si>
+    <t>小泉麻將傳說</t>
+  </si>
+  <si>
+    <t>mudazumo_naki_kaikaku</t>
+  </si>
+  <si>
+    <t>飯田晴子</t>
+  </si>
+  <si>
+    <t>fuushika_dentsua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風姿花傳</t>
+  </si>
+  <si>
+    <t>紫堂恭子</t>
+  </si>
+  <si>
+    <t>blue_infereior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻境時空海藍情</t>
+  </si>
+  <si>
+    <t>月館殺人事件</t>
+  </si>
+  <si>
+    <t>佐佐木倫子</t>
+  </si>
+  <si>
+    <t>tsukidate_no_satsujin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3X3Eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x3eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高田裕三</t>
+  </si>
+  <si>
+    <t>大唐灸炎傳</t>
+  </si>
+  <si>
+    <t>黃耀杰</t>
+  </si>
+  <si>
+    <t>tang_acupuncture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡筆記本</t>
+  </si>
+  <si>
+    <t>我的腐女友</t>
+  </si>
+  <si>
+    <t>城市風雲兒</t>
+  </si>
+  <si>
+    <t>鬼神童子</t>
+  </si>
+  <si>
+    <t>機動警察</t>
+  </si>
+  <si>
+    <t>爆走兄弟MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆走兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵板娘!</t>
+  </si>
+  <si>
+    <t>網球王子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許斐剛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖劇場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楳圖一雄</t>
+  </si>
+  <si>
+    <t>漂流網咖</t>
+  </si>
+  <si>
+    <t>靈蛇</t>
+  </si>
+  <si>
+    <t>獵魔戰記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八木教広</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的初戀情人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青木琴美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士兔之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福島鉄平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將太的壽司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寺澤大介</t>
+  </si>
+  <si>
+    <t>源氏物語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大和和紀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海獸之子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十嵐大介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班族金太郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宮宏志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺絲俠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉富昭仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 守護神傳奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉開寬二×毛利甚八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將太的壽司 全國大賽篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寺沢大介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們一家都是鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>池野戀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星歌奇緣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高屋奈月</t>
+  </si>
+  <si>
+    <t>赤河戀影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篠原千繪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸運女神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤島康介]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封神演義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤崎龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔乳秘劍帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山田秀樹</t>
+  </si>
+  <si>
+    <t>Cross - 魔王愛勇者</t>
+  </si>
+  <si>
+    <t>上田倫子</t>
+  </si>
+  <si>
+    <t>人魚之森</t>
+  </si>
+  <si>
+    <t>刁蠻白雪姬</t>
+  </si>
+  <si>
+    <t>大使閣下的料理人</t>
+  </si>
+  <si>
+    <t>天才整形師</t>
+  </si>
+  <si>
+    <t>天地無用!魎皇鬼</t>
+  </si>
+  <si>
+    <t>火線先鋒大吾</t>
+  </si>
+  <si>
+    <t>犬夜叉</t>
+  </si>
+  <si>
+    <t>四稻家的那些人</t>
+  </si>
+  <si>
+    <t>打工假期</t>
+  </si>
+  <si>
+    <t>生存遊戲</t>
+  </si>
+  <si>
+    <t>伊藤潤二恐怖漫畫精選</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守護女神月天～再逢～</t>
+  </si>
+  <si>
+    <t>守護甜心!</t>
+  </si>
+  <si>
+    <t>池袋西口公園</t>
+  </si>
+  <si>
+    <t>吸血鬼騎士</t>
+  </si>
+  <si>
+    <t>我的男友是王子</t>
+  </si>
+  <si>
+    <t>官僚系新鮮人</t>
+  </si>
+  <si>
+    <t>為食神探</t>
+  </si>
+  <si>
+    <t>相聚一刻</t>
+  </si>
+  <si>
+    <t>美女恐龍妹</t>
+  </si>
+  <si>
+    <t>美女恐龍妹  DX</t>
+  </si>
+  <si>
+    <t>夏日大作戰</t>
+  </si>
+  <si>
+    <t>海物語～有你相伴～</t>
+  </si>
+  <si>
+    <t>酒店八犬傳</t>
+  </si>
+  <si>
+    <t>偵探守則893</t>
+  </si>
+  <si>
+    <t>斬</t>
+  </si>
+  <si>
+    <t>涼風</t>
+  </si>
+  <si>
+    <t>鬥陣俱樂部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塩崎雄二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜歡。所以喜歡</t>
+  </si>
+  <si>
+    <t>朝まで授業Chu！</t>
+  </si>
+  <si>
+    <t>亂馬 1_2</t>
+  </si>
+  <si>
+    <t>愛由真由</t>
+  </si>
+  <si>
+    <t>搞怪家庭</t>
+  </si>
+  <si>
+    <t>搞笑天神</t>
+  </si>
+  <si>
+    <t>新禁斷之戀</t>
+  </si>
+  <si>
+    <t>禁斷毒天使</t>
+  </si>
+  <si>
+    <t>詭辯學派 四谷學長的怪談</t>
+  </si>
+  <si>
+    <t>漫畫家與助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震撼鮮師</t>
+  </si>
+  <si>
+    <t>築地魚河岸三代目</t>
+  </si>
+  <si>
+    <t>醫龍</t>
+  </si>
+  <si>
+    <t>魔音少年</t>
+  </si>
+  <si>
+    <t>魔斬執法者</t>
+  </si>
+  <si>
+    <t>無限食女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙村廣明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘書課秘蜜情事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春輝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高橋真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優&amp;魅衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIROSHI ARO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神葉理世</t>
+  </si>
+  <si>
+    <t>青山剛昌</t>
+  </si>
+  <si>
+    <t>yaiba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fujoshi_kanojo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zenki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷菊秀</t>
+  </si>
+  <si>
+    <t>漂流教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_drifting_classroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patlabor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADGEAR 結城正美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越田哲弘</t>
+  </si>
+  <si>
+    <t>bakuso_brothers_lets_go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bakuso_brothers_lets_go_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筧秀隆</t>
+  </si>
+  <si>
+    <t>iron_plate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prince_of_tennis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horror_theater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押見修造</t>
+  </si>
+  <si>
+    <t>drifting_net_cafe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orochi_blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claymore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_give_my_first_love_to_you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>samurai_rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shota_no_sushi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_tale_of_genji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children_of_the_sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salaryman_kintaro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat_man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legend_of_the_guardians</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shota_no_sushi_championship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokimeki_tonight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoshi_wa_utau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ah_my_goddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoshin_engi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_breast_secret_sword_scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ichtys</t>
+  </si>
+  <si>
+    <t>superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸足玫瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepping_on_roses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快樂婚禮</t>
+  </si>
+  <si>
+    <t>円城寺真紀</t>
+  </si>
+  <si>
+    <t>happy_marriage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tales_of_xillia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無盡傳奇</t>
+  </si>
+  <si>
+    <t>佐藤夕子</t>
+  </si>
+  <si>
+    <t>mermaid_saga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高橋留美子</t>
+  </si>
+  <si>
+    <t>snowwhite_panimix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐原いづみ</t>
+  </si>
+  <si>
+    <t>西村滿 川隅廣志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cook_ambassador_his_excellency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤誠</t>
+  </si>
+  <si>
+    <t>plastic_surgeon_rodin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenchi_muyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>梶島正樹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA55858"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>林宏樹</t>
+    </r>
+  </si>
+  <si>
+    <t>曾田正人</t>
+  </si>
+  <si>
+    <t>firefighter_daigo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inuyasha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>those_from_korera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志賀伯</t>
+  </si>
+  <si>
+    <t>坂木司</t>
+  </si>
+  <si>
+    <t>working_holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_royale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 高見広春 田口雅之</t>
+  </si>
+  <si>
+    <t>伊藤潤二</t>
+  </si>
+  <si>
+    <t>junji_ito_horror_comic_collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uzumaki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Junji_Ito</t>
+  </si>
+  <si>
+    <t>櫻野みねね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mamotte_shugogetten_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shugo_chara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEACH-PIT</t>
+  </si>
+  <si>
+    <t>ikebukuro_west_gate_park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vampire_knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樋野茉理</t>
+  </si>
+  <si>
+    <t>円城寺真纪</t>
+  </si>
+  <si>
+    <t>private_prince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buearucrat_rookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maison_ikkoku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楠桂</t>
+  </si>
+  <si>
+    <t>girls_saurus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girls_saurus_dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer_wars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩井恭平</t>
+  </si>
+  <si>
+    <t>葛城彰</t>
+  </si>
+  <si>
+    <t>umi_monogatari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影日昇</t>
+  </si>
+  <si>
+    <t>hachiba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼斬參見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost_chopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detective_shusoku_893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杉田尚</t>
+  </si>
+  <si>
+    <t>zan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suzuka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀨尾公治</t>
+  </si>
+  <si>
+    <t>battle_club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sukisho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition_until_the_morning_chu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太田顕喜×むにゅう</t>
+  </si>
+  <si>
+    <t>ranma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈴野哲次</t>
+  </si>
+  <si>
+    <t>ayu_mayu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北条司</t>
+  </si>
+  <si>
+    <t>f_compo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANKAN×松浦聡彥</t>
+  </si>
+  <si>
+    <t>大海十夢</t>
+  </si>
+  <si>
+    <t>冰栗優</t>
+  </si>
+  <si>
+    <t>古館春一</t>
+  </si>
+  <si>
+    <t>comic_and_the_artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒロユキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金丸大和</t>
+  </si>
+  <si>
+    <t>hammer_session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_taste_of_fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井明 乃木坂太郎</t>
+  </si>
+  <si>
+    <t>team_medical_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠川幸</t>
+  </si>
+  <si>
+    <t>北村龍平×加倉井ミサイル</t>
+  </si>
+  <si>
+    <t>艷陽少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球防衛少年</t>
+  </si>
+  <si>
+    <t>妙老師</t>
+  </si>
+  <si>
+    <t>星星公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩渦</t>
+  </si>
+  <si>
+    <t>誕生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物領冬實</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolurano_ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼頭莫宏</t>
+  </si>
+  <si>
+    <t>岡崎つぐお</t>
+  </si>
+  <si>
+    <t>strange_roshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadow_star_narutaru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honey_and_clover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜幸運草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽海野千花</t>
+  </si>
+  <si>
+    <t>uzumaki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山口讓司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終兵器少女外傳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comedy_god</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_blooms_voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_cut_law_enforcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun_girl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlimited_food_girl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secretary_secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she_the_last_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excellent_modern_clothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_forbidden_love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbidden_poison_angel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophists_seniors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本井廣海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>本澤友一郎</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石田衣良</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鍋田吉郎 並木洋美</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坂本あきら , 我孫子武丸</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1377,21 +2864,178 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF52667C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="21.6"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA55858"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1403,7 +3047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,6 +3077,69 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1715,1414 +3422,3033 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="27.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="36" style="27" customWidth="1"/>
     <col min="3" max="3" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="27" t="s">
         <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="27" t="s">
         <v>183</v>
       </c>
       <c r="C8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="27" t="s">
         <v>219</v>
       </c>
       <c r="C12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="27" t="s">
         <v>211</v>
       </c>
       <c r="C15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="27" t="s">
         <v>223</v>
       </c>
       <c r="C16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>189</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="27" t="s">
         <v>238</v>
       </c>
       <c r="C19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="27" t="s">
         <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="27" t="s">
         <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="27" t="s">
         <v>98</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="27" t="s">
         <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="27" t="s">
         <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C30" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="27" t="s">
         <v>208</v>
       </c>
       <c r="C32" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="27" t="s">
         <v>201</v>
       </c>
       <c r="C35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>185</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="27" t="s">
         <v>187</v>
       </c>
       <c r="C36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="27" t="s">
         <v>119</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="27" t="s">
         <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="27" t="s">
         <v>125</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="27" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="27" t="s">
         <v>200</v>
       </c>
       <c r="C47" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="27" t="s">
         <v>130</v>
       </c>
       <c r="C48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="27" t="s">
         <v>131</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="27" t="s">
         <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="27" t="s">
         <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="27" t="s">
         <v>137</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="27" t="s">
         <v>139</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="27" t="s">
         <v>193</v>
       </c>
       <c r="C56" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="27" t="s">
         <v>142</v>
       </c>
       <c r="C57" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="27" t="s">
         <v>144</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="27" t="s">
         <v>221</v>
       </c>
       <c r="C60" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="27" t="s">
         <v>203</v>
       </c>
       <c r="C61" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="27" t="s">
         <v>206</v>
       </c>
       <c r="C63" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="27" t="s">
         <v>235</v>
       </c>
       <c r="C65" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="27" t="s">
         <v>234</v>
       </c>
       <c r="C66" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="27" t="s">
         <v>233</v>
       </c>
       <c r="C67" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="27" t="s">
         <v>237</v>
       </c>
       <c r="C68" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="27" t="s">
         <v>172</v>
       </c>
       <c r="C69" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="27" t="s">
         <v>236</v>
       </c>
       <c r="C70" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C71" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C72" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="27" t="s">
         <v>148</v>
       </c>
       <c r="C73" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="27" t="s">
         <v>149</v>
       </c>
       <c r="C74" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="27" t="s">
         <v>151</v>
       </c>
       <c r="C75" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="27" t="s">
         <v>153</v>
       </c>
       <c r="C76" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="27" t="s">
         <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="27" t="s">
         <v>178</v>
       </c>
       <c r="C80" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C82" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="27" t="s">
         <v>205</v>
       </c>
       <c r="C83" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="27" t="s">
         <v>157</v>
       </c>
       <c r="C85" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="27" t="s">
         <v>160</v>
       </c>
       <c r="C86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="27" t="s">
         <v>163</v>
       </c>
       <c r="C87" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="27" t="s">
         <v>240</v>
       </c>
       <c r="C88" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="27" t="s">
         <v>243</v>
       </c>
       <c r="C89" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="27" t="s">
         <v>246</v>
       </c>
       <c r="C90" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="27" t="s">
         <v>248</v>
       </c>
       <c r="C91" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="27" t="s">
         <v>250</v>
       </c>
       <c r="C92" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="27" t="s">
         <v>253</v>
       </c>
       <c r="C93" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="27" t="s">
         <v>255</v>
       </c>
       <c r="C94" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="27" t="s">
         <v>257</v>
       </c>
       <c r="C95" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="27" t="s">
         <v>260</v>
       </c>
       <c r="C96" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="27" t="s">
         <v>263</v>
       </c>
       <c r="C97" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="27" t="s">
         <v>266</v>
       </c>
       <c r="C98" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="27" t="s">
         <v>269</v>
       </c>
       <c r="C99" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="27" t="s">
         <v>271</v>
       </c>
       <c r="C100" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C101" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="27" t="s">
         <v>275</v>
       </c>
       <c r="C102" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="27" t="s">
         <v>278</v>
       </c>
       <c r="C103" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="27" t="s">
         <v>281</v>
       </c>
       <c r="C104" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="27" t="s">
         <v>284</v>
       </c>
       <c r="C105" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="27" t="s">
         <v>287</v>
       </c>
       <c r="C106" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="27" t="s">
         <v>291</v>
       </c>
       <c r="C107" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="27" t="s">
         <v>293</v>
       </c>
       <c r="C108" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C109" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="27" t="s">
         <v>299</v>
       </c>
       <c r="C110" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="27" t="s">
         <v>301</v>
       </c>
       <c r="C111" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="27" t="s">
         <v>304</v>
       </c>
       <c r="C112" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="27" t="s">
         <v>307</v>
       </c>
       <c r="C113" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="27" t="s">
         <v>310</v>
       </c>
       <c r="C114" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="27" t="s">
         <v>313</v>
       </c>
       <c r="C115" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="27" t="s">
         <v>316</v>
       </c>
       <c r="C116" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="27" t="s">
         <v>319</v>
       </c>
       <c r="C117" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="27" t="s">
         <v>322</v>
       </c>
       <c r="C118" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="27" t="s">
         <v>325</v>
       </c>
       <c r="C119" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="27" t="s">
         <v>329</v>
       </c>
       <c r="C120" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="27" t="s">
         <v>331</v>
       </c>
       <c r="C121" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="27" t="s">
         <v>334</v>
       </c>
       <c r="C122" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="27" t="s">
         <v>337</v>
       </c>
       <c r="C123" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="27" t="s">
         <v>340</v>
       </c>
       <c r="C124" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="27" t="s">
         <v>343</v>
       </c>
       <c r="C125" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="27" t="s">
         <v>346</v>
       </c>
       <c r="C126" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="27" t="s">
         <v>349</v>
       </c>
       <c r="C127" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B138" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B139" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B141" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B142" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B143" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B144" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B152" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B153" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B157" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="C159" s="11"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B163" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B164" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B165" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B167" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B173" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B176" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B177" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B178" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B179" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B180" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="20.25">
+      <c r="A182" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B183" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="27.75" thickBot="1">
+      <c r="A188" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B188" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B213" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B217" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A218" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B218" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="B220" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B222" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B223" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="B224" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B225" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B226" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B227" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B228" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A229" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="B229" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="D229" t="s">
+        <v>685</v>
+      </c>
+      <c r="E229" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B230" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B231" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B232" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B233" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B234" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B235" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B238" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A240" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="B240" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B241" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="B242" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="C242" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="B243" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="C243" s="19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="17.25">
+      <c r="A244" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="B244" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B245" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B246" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B247" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B248" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B249" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="B250" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="C250" s="19" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B251" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B252" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B253" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B254" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B255" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="C255" s="19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B256" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B257" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="C257" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B258" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="C258" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="6"/>
+      <c r="B259" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="C259" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B260" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="C260" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B261" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="C261" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B262" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="C262" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B263" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="C263" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B264" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="C264" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B265" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="C265" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B266" s="27" t="s">
+        <v>758</v>
+      </c>
+      <c r="C266" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B267" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="C267" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B268" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="C268" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B269" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="C269" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B270" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="C270" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B271" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="C271" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A272" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="B272" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="C272" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="B273" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="C273" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B274" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="C274" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -3195,8 +6521,37 @@
     <hyperlink ref="A119" r:id="rId62" tooltip="川口開治" display="https://zh.wikipedia.org/wiki/%E5%B7%9D%E5%8F%A3%E9%96%8B%E6%B2%BB"/>
     <hyperlink ref="A123" r:id="rId63" tooltip="皆川亮二" display="https://zh.wikipedia.org/wiki/%E7%9A%86%E5%B7%9D%E4%BA%AE%E4%BA%8C"/>
     <hyperlink ref="A124" r:id="rId64" display="https://zh.wikipedia.org/w/index.php?title=%E5%B9%B3%E9%87%8E%E8%80%95%E5%A4%AA&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="A183" r:id="rId65" tooltip="佐佐木倫子" display="http://tw.seemh.com/author/1794/"/>
+    <hyperlink ref="A184" r:id="rId66" tooltip="高田裕三" display="https://zh.wikipedia.org/wiki/%E9%AB%98%E7%94%B0%E8%A3%95%E4%B8%89"/>
+    <hyperlink ref="A216" r:id="rId67" tooltip="上田倫子" display="http://tw.seemh.com/author/28/"/>
+    <hyperlink ref="A186" r:id="rId68" tooltip="小畑健" display="https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%95%91%E5%81%A5"/>
+    <hyperlink ref="A187" r:id="rId69" tooltip="神葉理世" display="http://tw.seemh.com/author/2011/"/>
+    <hyperlink ref="A190" r:id="rId70" tooltip="楳圖一雄" display="https://zh.wikipedia.org/wiki/%E6%A5%B3%E5%9C%96%E4%B8%80%E9%9B%84"/>
+    <hyperlink ref="A192" r:id="rId71" tooltip="越田哲弘" display="https://zh.wikipedia.org/wiki/%E8%B6%8A%E7%94%B0%E5%93%B2%E5%BC%98"/>
+    <hyperlink ref="A193" r:id="rId72" tooltip="越田哲弘" display="https://zh.wikipedia.org/wiki/%E8%B6%8A%E7%94%B0%E5%93%B2%E5%BC%98"/>
+    <hyperlink ref="A194" r:id="rId73" tooltip="筧秀隆" display="http://tw.seemh.com/author/3189/"/>
+    <hyperlink ref="A215" r:id="rId74" tooltip="Ichtys (頁面不存在)" display="https://zh.wikipedia.org/w/index.php?title=Ichtys&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="A221" r:id="rId75" tooltip="西村滿" display="https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%9D%91%E6%BB%BF"/>
+    <hyperlink ref="A222" r:id="rId76" display="http://acg.gamer.com.tw/search.php?st=1&amp;kw=%E4%BD%90%E8%97%A4%E8%AA%A0"/>
+    <hyperlink ref="A225" r:id="rId77" tooltip="高橋留美子" display="https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A9%8B%E7%95%99%E7%BE%8E%E5%AD%90"/>
+    <hyperlink ref="A231" r:id="rId78" tooltip="PEACH-PIT" display="https://zh.wikipedia.org/wiki/PEACH-PIT"/>
+    <hyperlink ref="A232" r:id="rId79" display="http://search.books.com.tw/exep/prod_search.php?key=%E7%9F%B3%E7%94%B0%E8%A1%A3%E8%89%AF%2F%E8%91%97&amp;f=author"/>
+    <hyperlink ref="A233" r:id="rId80" tooltip="樋野茉理" display="https://zh.wikipedia.org/wiki/%E6%A8%8B%E9%87%8E%E8%8C%89%E7%90%86"/>
+    <hyperlink ref="A234" r:id="rId81" display="http://www.dm5.com/search?title=%e5%86%86%e5%9f%8e%e5%af%ba%e7%9c%9f%e7%ba%aa&amp;language=1&amp;f=2"/>
+    <hyperlink ref="A235" r:id="rId82" tooltip="鍋田吉郎/原作，並木洋美/漫畫" display="http://search.books.com.tw/exep/prod_search.php?cat=all&amp;key=%E9%8D%8B%E7%94%B0%E5%90%89%E9%83%8E%2F%E5%8E%9F%E4%BD%9C%EF%BC%8C%E4%B8%A6%E6%9C%A8%E6%B4%8B%E7%BE%8E%2F%E6%BC%AB%E7%95%AB&amp;f=author"/>
+    <hyperlink ref="A236" r:id="rId83" tooltip="寺澤大介" display="https://zh.wikipedia.org/wiki/%E5%AF%BA%E6%BE%A4%E5%A4%A7%E4%BB%8B"/>
+    <hyperlink ref="A238" r:id="rId84" tooltip="楠桂" display="https://zh.wikipedia.org/wiki/%E6%A5%A0%E6%A1%82"/>
+    <hyperlink ref="A239" r:id="rId85" tooltip="楠桂" display="https://zh.wikipedia.org/wiki/%E6%A5%A0%E6%A1%82"/>
+    <hyperlink ref="A246" r:id="rId86" tooltip="瀨尾公治" display="https://zh.wikipedia.org/wiki/%E7%80%A8%E5%B0%BE%E5%85%AC%E6%B2%BB"/>
+    <hyperlink ref="A254" r:id="rId87" tooltip="大海十夢" display="http://tw.seemh.com/author/109/"/>
+    <hyperlink ref="A255" r:id="rId88" tooltip="冰栗優" display="http://tw.seemh.com/author/3861/"/>
+    <hyperlink ref="A257" r:id="rId89" tooltip="ヒロユキ" display="https://zh.wikipedia.org/wiki/%E3%83%92%E3%83%AD%E3%83%A6%E3%82%AD"/>
+    <hyperlink ref="A258" r:id="rId90" tooltip="小金丸大和 (頁面不存在)" display="https://zh.wikipedia.org/w/index.php?title=%E5%B0%8F%E9%87%91%E4%B8%B8%E5%A4%A7%E5%92%8C&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="A268" r:id="rId91" tooltip="鬼頭莫宏" display="https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%A0%AD%E8%8E%AB%E5%AE%8F"/>
+    <hyperlink ref="A270" r:id="rId92" tooltip="鬼頭莫宏" display="https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%A0%AD%E8%8E%AB%E5%AE%8F"/>
+    <hyperlink ref="A271" r:id="rId93" tooltip="羽海野千花" display="https://zh.wikipedia.org/wiki/%E7%BE%BD%E6%B5%B7%E9%87%8E%E5%8D%83%E8%8A%B1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>